--- a/Defect.Cause2.xlsx
+++ b/Defect.Cause2.xlsx
@@ -331,7 +331,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
+        <fgColor rgb="FF00B050"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -357,9 +357,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -367,6 +364,9 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -652,7 +652,7 @@
   <dimension ref="A1:L64"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -661,7 +661,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="5" t="s">
         <v>63</v>
       </c>
       <c r="B1" t="s">
@@ -740,16 +740,16 @@
       <c r="C3">
         <v>3</v>
       </c>
-      <c r="F3" s="3" t="s">
+      <c r="F3" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="G3" s="3" t="s">
+      <c r="G3" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="H3" s="3" t="s">
+      <c r="H3" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="I3" s="3" t="s">
+      <c r="I3" s="2" t="s">
         <v>77</v>
       </c>
     </row>
@@ -763,16 +763,16 @@
       <c r="C4">
         <v>1</v>
       </c>
-      <c r="F4" s="3">
-        <v>1</v>
-      </c>
-      <c r="G4" s="3">
+      <c r="F4" s="2">
+        <v>1</v>
+      </c>
+      <c r="G4" s="2">
         <v>2</v>
       </c>
-      <c r="H4" s="3">
+      <c r="H4" s="2">
         <v>3</v>
       </c>
-      <c r="I4" s="3">
+      <c r="I4" s="2">
         <v>4</v>
       </c>
     </row>
@@ -1162,13 +1162,13 @@
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A40" s="4" t="s">
+      <c r="A40" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="B40" s="5" t="s">
-        <v>76</v>
-      </c>
-      <c r="C40" s="5">
+      <c r="B40" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="C40" s="4">
         <v>4</v>
       </c>
     </row>
